--- a/Test-Cases_Parking_Calculator.xlsx
+++ b/Test-Cases_Parking_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="336" windowWidth="22692" windowHeight="9276" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="336" windowWidth="22692" windowHeight="9276" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="495">
   <si>
     <t>Reference Material</t>
   </si>
@@ -815,204 +815,6 @@
   </si>
   <si>
     <t>http://www.grr.org/parking-calculator.php</t>
-  </si>
-  <si>
-    <t>FUNC-001</t>
-  </si>
-  <si>
-    <t>FUNC-002</t>
-  </si>
-  <si>
-    <t>FUNC-003</t>
-  </si>
-  <si>
-    <t>FUNC-004</t>
-  </si>
-  <si>
-    <t>FUNC-005</t>
-  </si>
-  <si>
-    <t>FUNC-006</t>
-  </si>
-  <si>
-    <t>FUNC-007</t>
-  </si>
-  <si>
-    <t>FUNC-008</t>
-  </si>
-  <si>
-    <t>FUNC-009</t>
-  </si>
-  <si>
-    <t>FUNC-010</t>
-  </si>
-  <si>
-    <t>FUNC-011</t>
-  </si>
-  <si>
-    <t>FUNC-012</t>
-  </si>
-  <si>
-    <t>FUNC-013</t>
-  </si>
-  <si>
-    <t>FUNC-014</t>
-  </si>
-  <si>
-    <t>FUNC-015</t>
-  </si>
-  <si>
-    <t>FUNC-016</t>
-  </si>
-  <si>
-    <t>FUNC-017</t>
-  </si>
-  <si>
-    <t>FUNC-018</t>
-  </si>
-  <si>
-    <t>FUNC-019</t>
-  </si>
-  <si>
-    <t>FUNC-020</t>
-  </si>
-  <si>
-    <t>FUNC-021</t>
-  </si>
-  <si>
-    <t>FUNC-022</t>
-  </si>
-  <si>
-    <t>FUNC-023</t>
-  </si>
-  <si>
-    <t>FUNC-024</t>
-  </si>
-  <si>
-    <t>FUNC-025</t>
-  </si>
-  <si>
-    <t>FUNC-026</t>
-  </si>
-  <si>
-    <t>FUNC-027</t>
-  </si>
-  <si>
-    <t>FUNC-028</t>
-  </si>
-  <si>
-    <t>FUNC-029</t>
-  </si>
-  <si>
-    <t>FUNC-030</t>
-  </si>
-  <si>
-    <t>FUNC-031</t>
-  </si>
-  <si>
-    <t>FUNC-032</t>
-  </si>
-  <si>
-    <t>FUNC-033</t>
-  </si>
-  <si>
-    <t>FUNC-034</t>
-  </si>
-  <si>
-    <t>FUNC-035</t>
-  </si>
-  <si>
-    <t>FUNC-036</t>
-  </si>
-  <si>
-    <t>FUNC-037</t>
-  </si>
-  <si>
-    <t>FUNC-038</t>
-  </si>
-  <si>
-    <t>FUNC-039</t>
-  </si>
-  <si>
-    <t>FUNC-040</t>
-  </si>
-  <si>
-    <t>FUNC-041</t>
-  </si>
-  <si>
-    <t>FUNC-042</t>
-  </si>
-  <si>
-    <t>FUNC-043</t>
-  </si>
-  <si>
-    <t>FUNC-044</t>
-  </si>
-  <si>
-    <t>FUNC-045</t>
-  </si>
-  <si>
-    <t>FUNC-046</t>
-  </si>
-  <si>
-    <t>FUNC-047</t>
-  </si>
-  <si>
-    <t>FUNC-048</t>
-  </si>
-  <si>
-    <t>FUNC-049</t>
-  </si>
-  <si>
-    <t>FUNC-050</t>
-  </si>
-  <si>
-    <t>FUNC-051</t>
-  </si>
-  <si>
-    <t>FUNC-052</t>
-  </si>
-  <si>
-    <t>FUNC-053</t>
-  </si>
-  <si>
-    <t>FUNC-054</t>
-  </si>
-  <si>
-    <t>FUNC-055</t>
-  </si>
-  <si>
-    <t>FUNC-056</t>
-  </si>
-  <si>
-    <t>FUNC-057</t>
-  </si>
-  <si>
-    <t>FUNC-058</t>
-  </si>
-  <si>
-    <t>FUNC-059</t>
-  </si>
-  <si>
-    <t>FUNC-060</t>
-  </si>
-  <si>
-    <t>FUNC-061</t>
-  </si>
-  <si>
-    <t>FUNC-062</t>
-  </si>
-  <si>
-    <t>FUNC-063</t>
-  </si>
-  <si>
-    <t>FUNC-064</t>
-  </si>
-  <si>
-    <t>FUNC-065</t>
-  </si>
-  <si>
-    <t>FUNC-066</t>
   </si>
   <si>
     <t>Author</t>
@@ -1356,35 +1158,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> lot 
-for duration 0 days 0 hours 1 minites 
-the calculated price is exactly 2$.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify that for</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ‘Economy parking’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lot 
 for duration 0 days 2 hours 0 minites 
 the calculated price is exactly 4$.</t>
     </r>
@@ -3744,38 +3517,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Valet Parking’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Lot; 
-2. Input Entry date 16/4/2019; 
-3. Input Entry hour 01:00 AM;
-4. Input Leaving Date 16/4/2019;
-5. Input Leaving Time 01:00 AM;
-6. Click Calculate Button</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Verify that for</t>
     </r>
     <r>
@@ -4881,6 +4622,273 @@
     <t xml:space="preserve">In the cost field is displayed 
 $192.00 (10D/3H/28M)
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the cost field is displayed 
+$50.00 (5D/0H/0M)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ‘Economy parking’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lot 
+for duration 0 days 0 hours 1 minites 
+the calculated price is exactly 2$.</t>
+    </r>
+  </si>
+  <si>
+    <t>FUNC_001</t>
+  </si>
+  <si>
+    <t>FUNC_002</t>
+  </si>
+  <si>
+    <t>FUNC_003</t>
+  </si>
+  <si>
+    <t>FUNC_004</t>
+  </si>
+  <si>
+    <t>FUNC_005</t>
+  </si>
+  <si>
+    <t>FUNC_006</t>
+  </si>
+  <si>
+    <t>FUNC_007</t>
+  </si>
+  <si>
+    <t>FUNC_008</t>
+  </si>
+  <si>
+    <t>FUNC_009</t>
+  </si>
+  <si>
+    <t>FUNC_010</t>
+  </si>
+  <si>
+    <t>FUNC_011</t>
+  </si>
+  <si>
+    <t>FUNC_012</t>
+  </si>
+  <si>
+    <t>FUNC_013</t>
+  </si>
+  <si>
+    <t>FUNC_014</t>
+  </si>
+  <si>
+    <t>FUNC_015</t>
+  </si>
+  <si>
+    <t>FUNC_016</t>
+  </si>
+  <si>
+    <t>FUNC_017</t>
+  </si>
+  <si>
+    <t>FUNC_018</t>
+  </si>
+  <si>
+    <t>FUNC_019</t>
+  </si>
+  <si>
+    <t>FUNC_020</t>
+  </si>
+  <si>
+    <t>FUNC_021</t>
+  </si>
+  <si>
+    <t>FUNC_022</t>
+  </si>
+  <si>
+    <t>FUNC_023</t>
+  </si>
+  <si>
+    <t>FUNC_024</t>
+  </si>
+  <si>
+    <t>FUNC_025</t>
+  </si>
+  <si>
+    <t>FUNC_026</t>
+  </si>
+  <si>
+    <t>FUNC_027</t>
+  </si>
+  <si>
+    <t>FUNC_028</t>
+  </si>
+  <si>
+    <t>FUNC_029</t>
+  </si>
+  <si>
+    <t>FUNC_030</t>
+  </si>
+  <si>
+    <t>FUNC_031</t>
+  </si>
+  <si>
+    <t>FUNC_032</t>
+  </si>
+  <si>
+    <t>FUNC_033</t>
+  </si>
+  <si>
+    <t>FUNC_034</t>
+  </si>
+  <si>
+    <t>FUNC_035</t>
+  </si>
+  <si>
+    <t>FUNC_036</t>
+  </si>
+  <si>
+    <t>FUNC_037</t>
+  </si>
+  <si>
+    <t>FUNC_038</t>
+  </si>
+  <si>
+    <t>FUNC_039</t>
+  </si>
+  <si>
+    <t>FUNC_040</t>
+  </si>
+  <si>
+    <t>FUNC_041</t>
+  </si>
+  <si>
+    <t>FUNC_042</t>
+  </si>
+  <si>
+    <t>FUNC_043</t>
+  </si>
+  <si>
+    <t>FUNC_044</t>
+  </si>
+  <si>
+    <t>FUNC_045</t>
+  </si>
+  <si>
+    <t>FUNC_046</t>
+  </si>
+  <si>
+    <t>FUNC_047</t>
+  </si>
+  <si>
+    <t>FUNC_048</t>
+  </si>
+  <si>
+    <t>FUNC_049</t>
+  </si>
+  <si>
+    <t>FUNC_050</t>
+  </si>
+  <si>
+    <t>FUNC_051</t>
+  </si>
+  <si>
+    <t>FUNC_052</t>
+  </si>
+  <si>
+    <t>FUNC_053</t>
+  </si>
+  <si>
+    <t>FUNC_054</t>
+  </si>
+  <si>
+    <t>FUNC_055</t>
+  </si>
+  <si>
+    <t>FUNC_056</t>
+  </si>
+  <si>
+    <t>FUNC_057</t>
+  </si>
+  <si>
+    <t>FUNC_058</t>
+  </si>
+  <si>
+    <t>FUNC_059</t>
+  </si>
+  <si>
+    <t>FUNC_060</t>
+  </si>
+  <si>
+    <t>FUNC_061</t>
+  </si>
+  <si>
+    <t>FUNC_062</t>
+  </si>
+  <si>
+    <t>FUNC_063</t>
+  </si>
+  <si>
+    <t>FUNC_064</t>
+  </si>
+  <si>
+    <t>FUNC_065</t>
+  </si>
+  <si>
+    <t>FUNC_066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the cost field is displayed 
+$48.00 (1D/14H/0M)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Valet Parking’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lot; 
+2. Input Entry date 16/4/2019; 
+3. Input Entry hour 01:00 AM;
+4. Input Leaving Date 16/4/2019;
+5. Input Leaving Time 01:01 AM;
+6. Click Calculate Button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4890,7 +4898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5028,12 +5036,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5416,7 +5418,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5598,9 +5600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5713,296 +5712,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="222">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="188">
     <dxf>
       <font>
         <color auto="1"/>
@@ -7621,56 +7331,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:C23" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:C23" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
   <tableColumns count="3">
-    <tableColumn id="1" name="Test Results Summary (Auto Calculated)" dataDxfId="219"/>
-    <tableColumn id="2" name="Number" dataDxfId="218">
+    <tableColumn id="1" name="Test Results Summary (Auto Calculated)" dataDxfId="185"/>
+    <tableColumn id="2" name="Number" dataDxfId="184">
       <calculatedColumnFormula>SUM(Performance!F2,Functionality!E2,'Usability and Accessibility '!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Percent" dataDxfId="217" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Percent" dataDxfId="183" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:C8" totalsRowShown="0" headerRowDxfId="216" dataDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:C8" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
   <tableColumns count="3">
-    <tableColumn id="1" name="Reference Information" dataDxfId="214"/>
-    <tableColumn id="2" name="Location" dataDxfId="213"/>
-    <tableColumn id="3" name="Comments" dataDxfId="212"/>
+    <tableColumn id="1" name="Reference Information" dataDxfId="180"/>
+    <tableColumn id="2" name="Location" dataDxfId="179"/>
+    <tableColumn id="3" name="Comments" dataDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A10:C17" totalsRowShown="0" headerRowDxfId="211" dataDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A10:C17" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
   <autoFilter ref="A10:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Created Documents" dataDxfId="209"/>
-    <tableColumn id="2" name="Person" dataDxfId="208"/>
-    <tableColumn id="3" name="Date" dataDxfId="207"/>
+    <tableColumn id="1" name="Created Documents" dataDxfId="175"/>
+    <tableColumn id="2" name="Person" dataDxfId="174"/>
+    <tableColumn id="3" name="Date" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K74" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K74" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="A8:K74"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="152"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="151"/>
-    <tableColumn id="10" name="Precondition" dataDxfId="150"/>
-    <tableColumn id="3" name="Test Steps and Data" dataDxfId="149"/>
-    <tableColumn id="4" name="Expected Result" dataDxfId="148"/>
-    <tableColumn id="11" name="Author" dataDxfId="147"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="146"/>
-    <tableColumn id="6" name="Status" dataDxfId="145"/>
-    <tableColumn id="7" name="Tester" dataDxfId="144"/>
-    <tableColumn id="8" name="Date/Time" dataDxfId="143"/>
-    <tableColumn id="9" name="Comments" dataDxfId="142"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="118"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="117"/>
+    <tableColumn id="10" name="Precondition" dataDxfId="116"/>
+    <tableColumn id="3" name="Test Steps and Data" dataDxfId="115"/>
+    <tableColumn id="4" name="Expected Result" dataDxfId="114"/>
+    <tableColumn id="11" name="Author" dataDxfId="113"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="112"/>
+    <tableColumn id="6" name="Status" dataDxfId="111"/>
+    <tableColumn id="7" name="Tester" dataDxfId="110"/>
+    <tableColumn id="8" name="Date/Time" dataDxfId="109"/>
+    <tableColumn id="9" name="Comments" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8001,16 +7711,16 @@
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -8020,14 +7730,14 @@
         <v>104</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -8037,14 +7747,14 @@
         <v>104</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -8054,14 +7764,14 @@
         <v>104</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -8071,14 +7781,14 @@
         <v>104</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -8088,14 +7798,14 @@
         <v>104</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -8121,16 +7831,16 @@
       <c r="C11" s="12">
         <v>42221</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -8142,14 +7852,14 @@
       <c r="C12" s="12">
         <v>42223</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -8161,14 +7871,14 @@
       <c r="C13" s="12">
         <v>42223</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -8180,53 +7890,53 @@
       <c r="C14" s="12">
         <v>42226</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="13"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="13"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="13"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
@@ -8341,10 +8051,10 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="20"/>
       <c r="E2" s="3" t="s">
         <v>85</v>
@@ -8427,10 +8137,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -8442,7 +8152,7 @@
       <c r="E9" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="45" t="s">
@@ -8460,8 +8170,8 @@
       <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="37" t="s">
         <v>139</v>
       </c>
@@ -8471,7 +8181,7 @@
       <c r="E10" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="37" t="s">
         <v>133</v>
       </c>
@@ -8487,8 +8197,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="49" t="s">
         <v>140</v>
       </c>
@@ -8498,7 +8208,7 @@
       <c r="E11" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="87"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="49" t="s">
         <v>134</v>
       </c>
@@ -8514,10 +8224,10 @@
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -8527,7 +8237,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="40"/>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="82" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="40" t="s">
@@ -8545,8 +8255,8 @@
       <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" s="36" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="40" t="s">
         <v>145</v>
       </c>
@@ -8554,7 +8264,7 @@
         <v>147</v>
       </c>
       <c r="E13" s="38"/>
-      <c r="F13" s="84"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="37" t="s">
         <v>148</v>
       </c>
@@ -8570,8 +8280,8 @@
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="36" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="40" t="s">
         <v>149</v>
       </c>
@@ -8579,7 +8289,7 @@
         <v>151</v>
       </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="84"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="34" t="s">
         <v>150</v>
       </c>
@@ -8595,23 +8305,23 @@
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" s="36" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="95" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>156</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="85" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="45" t="s">
@@ -8626,17 +8336,17 @@
       <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="34" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="37" t="s">
         <v>80</v>
       </c>
@@ -8649,17 +8359,17 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="37" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="49" t="s">
         <v>80</v>
       </c>
@@ -10155,202 +9865,202 @@
     <mergeCell ref="B9:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:B9 D9:D10 F18:K81 D18:D81 A18:B81 G9:K10">
-    <cfRule type="expression" dxfId="206" priority="99">
+    <cfRule type="expression" dxfId="172" priority="99">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="100">
+    <cfRule type="expression" dxfId="171" priority="100">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 C18:C81">
-    <cfRule type="expression" dxfId="204" priority="97">
+    <cfRule type="expression" dxfId="170" priority="97">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="98">
+    <cfRule type="expression" dxfId="169" priority="98">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 E18:E81">
-    <cfRule type="expression" dxfId="202" priority="95">
+    <cfRule type="expression" dxfId="168" priority="95">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="96">
+    <cfRule type="expression" dxfId="167" priority="96">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 G11:I11 K11">
-    <cfRule type="expression" dxfId="200" priority="93">
+    <cfRule type="expression" dxfId="166" priority="93">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="94">
+    <cfRule type="expression" dxfId="165" priority="94">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="198" priority="91">
+    <cfRule type="expression" dxfId="164" priority="91">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="92">
+    <cfRule type="expression" dxfId="163" priority="92">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="196" priority="25">
+    <cfRule type="expression" dxfId="162" priority="25">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="26">
+    <cfRule type="expression" dxfId="161" priority="26">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="194" priority="83">
+    <cfRule type="expression" dxfId="160" priority="83">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="84">
+    <cfRule type="expression" dxfId="159" priority="84">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="192" priority="79">
+    <cfRule type="expression" dxfId="158" priority="79">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="80">
+    <cfRule type="expression" dxfId="157" priority="80">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="190" priority="77">
+    <cfRule type="expression" dxfId="156" priority="77">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="78">
+    <cfRule type="expression" dxfId="155" priority="78">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="188" priority="59">
+    <cfRule type="expression" dxfId="154" priority="59">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="60">
+    <cfRule type="expression" dxfId="153" priority="60">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 H17 K17">
-    <cfRule type="expression" dxfId="186" priority="35">
+    <cfRule type="expression" dxfId="152" priority="35">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="36">
+    <cfRule type="expression" dxfId="151" priority="36">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="184" priority="21">
+    <cfRule type="expression" dxfId="150" priority="21">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="22">
+    <cfRule type="expression" dxfId="149" priority="22">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="182" priority="19">
+    <cfRule type="expression" dxfId="148" priority="19">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="20">
+    <cfRule type="expression" dxfId="147" priority="20">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 G12:K13 D12:D13">
-    <cfRule type="expression" dxfId="180" priority="75">
+    <cfRule type="expression" dxfId="146" priority="75">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="76">
+    <cfRule type="expression" dxfId="145" priority="76">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="expression" dxfId="178" priority="73">
+    <cfRule type="expression" dxfId="144" priority="73">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="74">
+    <cfRule type="expression" dxfId="143" priority="74">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="expression" dxfId="176" priority="71">
+    <cfRule type="expression" dxfId="142" priority="71">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="72">
+    <cfRule type="expression" dxfId="141" priority="72">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 G14:I14 K14">
-    <cfRule type="expression" dxfId="174" priority="69">
+    <cfRule type="expression" dxfId="140" priority="69">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="70">
+    <cfRule type="expression" dxfId="139" priority="70">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="172" priority="65">
+    <cfRule type="expression" dxfId="138" priority="65">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="66">
+    <cfRule type="expression" dxfId="137" priority="66">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15 D15:D16 H15:K16">
-    <cfRule type="expression" dxfId="170" priority="41">
+    <cfRule type="expression" dxfId="136" priority="41">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="42">
+    <cfRule type="expression" dxfId="135" priority="42">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="168" priority="63">
+    <cfRule type="expression" dxfId="134" priority="63">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="64">
+    <cfRule type="expression" dxfId="133" priority="64">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="166" priority="61">
+    <cfRule type="expression" dxfId="132" priority="61">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="62">
+    <cfRule type="expression" dxfId="131" priority="62">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="164" priority="31">
+    <cfRule type="expression" dxfId="130" priority="31">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="32">
+    <cfRule type="expression" dxfId="129" priority="32">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="162" priority="39">
+    <cfRule type="expression" dxfId="128" priority="39">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="40">
+    <cfRule type="expression" dxfId="127" priority="40">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="160" priority="37">
+    <cfRule type="expression" dxfId="126" priority="37">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="38">
+    <cfRule type="expression" dxfId="125" priority="38">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="158" priority="23">
+    <cfRule type="expression" dxfId="124" priority="23">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="24">
+    <cfRule type="expression" dxfId="123" priority="24">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10369,20 +10079,20 @@
   </sheetPr>
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" style="67" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="66" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="66" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
@@ -10415,7 +10125,7 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="60"/>
@@ -10427,7 +10137,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(H9:H73,"Pass")</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>96</v>
@@ -10435,7 +10145,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="64"/>
@@ -10445,14 +10155,14 @@
       </c>
       <c r="H3" s="4">
         <f>COUNTIF(H9:H73,"Fail")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="65"/>
@@ -10466,7 +10176,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
+      <c r="B5" s="98"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -10493,7 +10203,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G8" s="67" t="s">
         <v>8</v>
@@ -10513,41 +10223,41 @@
     </row>
     <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H9" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J9" s="59"/>
       <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="C10" s="58" t="str">
         <f>C9</f>
@@ -10555,32 +10265,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="C11" s="58" t="str">
         <f t="shared" ref="C11:C25" si="0">C10</f>
@@ -10588,32 +10298,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="H11" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>187</v>
+        <v>430</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C12" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10621,32 +10331,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="H12" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="C13" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10654,32 +10364,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="H13" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C14" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10687,32 +10397,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="H14" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>190</v>
+        <v>433</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="C15" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10720,32 +10430,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="H15" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>191</v>
+        <v>434</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="C16" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10753,32 +10463,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="H16" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C17" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10786,32 +10496,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="H17" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="C18" s="58" t="str">
         <f t="shared" ref="C18" si="1">C17</f>
@@ -10819,32 +10529,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="H18" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J18" s="58"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="C19" s="58" t="str">
         <f t="shared" ref="C19" si="2">C18</f>
@@ -10852,32 +10562,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="H19" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J19" s="58"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="C20" s="58" t="str">
         <f t="shared" ref="C20" si="3">C19</f>
@@ -10885,32 +10595,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="H20" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="C21" s="58" t="str">
         <f t="shared" ref="C21" si="4">C20</f>
@@ -10918,32 +10628,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="H21" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J21" s="58"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="C22" s="58" t="str">
         <f t="shared" ref="C22" si="5">C21</f>
@@ -10951,32 +10661,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="H22" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J22" s="58"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="C23" s="58" t="str">
         <f t="shared" ref="C23" si="6">C22</f>
@@ -10984,32 +10694,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="H23" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="C24" s="58" t="str">
         <f t="shared" ref="C24" si="7">C23</f>
@@ -11017,32 +10727,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>294</v>
+        <v>493</v>
       </c>
       <c r="H24" s="58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
-        <v>200</v>
+        <v>443</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="C25" s="58" t="str">
         <f t="shared" si="0"/>
@@ -11050,32 +10760,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H25" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C26" s="58" t="str">
         <f t="shared" ref="C26" si="8">C25</f>
@@ -11083,32 +10793,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="H26" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="C27" s="58" t="str">
         <f t="shared" ref="C27" si="9">C26</f>
@@ -11116,32 +10826,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="H27" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="C28" s="58" t="str">
         <f t="shared" ref="C28" si="10">C27</f>
@@ -11149,32 +10859,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="H28" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="C29" s="58" t="str">
         <f t="shared" ref="C29" si="11">C28</f>
@@ -11182,32 +10892,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="H29" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="C30" s="58" t="str">
         <f t="shared" ref="C30" si="12">C29</f>
@@ -11215,32 +10925,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="H30" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="C31" s="58" t="str">
         <f t="shared" ref="C31" si="13">C30</f>
@@ -11248,32 +10958,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="H31" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="C32" s="58" t="str">
         <f t="shared" ref="C32" si="14">C31</f>
@@ -11281,32 +10991,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="H32" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="C33" s="58" t="str">
         <f t="shared" ref="C33" si="15">C32</f>
@@ -11314,32 +11024,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="H33" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="C34" s="58" t="str">
         <f t="shared" ref="C34" si="16">C33</f>
@@ -11347,32 +11057,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="H34" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="C35" s="58" t="str">
         <f t="shared" ref="C35" si="17">C34</f>
@@ -11380,32 +11090,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="H35" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
     </row>
     <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
-        <v>211</v>
+        <v>454</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="C36" s="58" t="str">
         <f t="shared" ref="C36" si="18">C35</f>
@@ -11413,32 +11123,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="H36" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
     </row>
     <row r="37" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="C37" s="58" t="str">
         <f t="shared" ref="C37:C49" si="19">C36</f>
@@ -11446,32 +11156,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="H37" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I37" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="C38" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11479,32 +11189,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H38" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
     </row>
     <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="C39" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11512,32 +11222,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="H39" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I39" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="C40" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11545,32 +11255,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="H40" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J40" s="58"/>
       <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="58" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="C41" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11578,32 +11288,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="H41" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="58" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="C42" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11611,32 +11321,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G42" s="61" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="H42" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="C43" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11644,32 +11354,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="H43" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="C44" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11677,32 +11387,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="H44" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I44" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="s">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="C45" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11710,32 +11420,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="H45" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I45" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="s">
-        <v>221</v>
+        <v>464</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="C46" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11743,32 +11453,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="H46" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I46" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="58" t="s">
-        <v>222</v>
+        <v>465</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="C47" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11776,32 +11486,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="H47" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="58" t="s">
-        <v>223</v>
+        <v>466</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="C48" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11809,32 +11519,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="H48" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I48" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="C49" s="58" t="str">
         <f t="shared" si="19"/>
@@ -11842,32 +11552,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="H49" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I49" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="58" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="C50" s="58" t="str">
         <f t="shared" ref="C50:C62" si="20">C49</f>
@@ -11875,32 +11585,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="F50" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="H50" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I50" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="71" t="s">
-        <v>226</v>
+      <c r="A51" s="58" t="s">
+        <v>469</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="C51" s="58" t="str">
         <f t="shared" si="20"/>
@@ -11908,32 +11618,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F51" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H51" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I51" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="58" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="C52" s="58" t="str">
         <f t="shared" si="20"/>
@@ -11941,32 +11651,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="H52" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
     </row>
     <row r="53" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="C53" s="58" t="str">
         <f t="shared" si="20"/>
@@ -11974,32 +11684,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="H53" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I53" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="C54" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12007,32 +11717,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="F54" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="H54" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="58" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="C55" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12040,32 +11750,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="F55" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="H55" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I55" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="58" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="C56" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12073,32 +11783,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="F56" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="H56" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
     </row>
     <row r="57" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="58" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="C57" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12106,32 +11816,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="H57" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I57" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="58" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="C58" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12139,32 +11849,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="F58" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G58" s="61" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="H58" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I58" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J58" s="58"/>
       <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
-        <v>234</v>
+        <v>477</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="C59" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12172,32 +11882,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="H59" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I59" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J59" s="58"/>
       <c r="K59" s="58"/>
     </row>
     <row r="60" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="58" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="C60" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12205,32 +11915,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="F60" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="H60" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I60" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J60" s="58"/>
       <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="C61" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12238,32 +11948,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="H61" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I61" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J61" s="58"/>
       <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="58" t="s">
-        <v>237</v>
+        <v>480</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="C62" s="58" t="str">
         <f t="shared" si="20"/>
@@ -12271,32 +11981,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="F62" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G62" s="61" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="H62" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I62" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J62" s="58"/>
       <c r="K62" s="58"/>
     </row>
     <row r="63" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="58" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="C63" s="58" t="str">
         <f t="shared" ref="C63" si="21">C62</f>
@@ -12304,32 +12014,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G63" s="61" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="H63" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J63" s="58"/>
       <c r="K63" s="58"/>
     </row>
     <row r="64" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="58" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="C64" s="58" t="str">
         <f t="shared" ref="C64" si="22">C63</f>
@@ -12337,32 +12047,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="E64" s="61" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="F64" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G64" s="61" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="H64" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I64" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J64" s="58"/>
       <c r="K64" s="58"/>
     </row>
     <row r="65" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="58" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="C65" s="58" t="str">
         <f t="shared" ref="C65" si="23">C64</f>
@@ -12370,32 +12080,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="H65" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I65" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J65" s="58"/>
       <c r="K65" s="58"/>
     </row>
     <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="58" t="s">
-        <v>241</v>
+        <v>484</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="C66" s="58" t="str">
         <f t="shared" ref="C66" si="24">C65</f>
@@ -12403,32 +12113,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="E66" s="61" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G66" s="61" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="H66" s="58" t="s">
         <v>80</v>
       </c>
       <c r="I66" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J66" s="58"/>
       <c r="K66" s="58"/>
     </row>
     <row r="67" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="C67" s="58" t="str">
         <f t="shared" ref="C67" si="25">C66</f>
@@ -12436,32 +12146,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
       <c r="F67" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G67" s="61" t="s">
-        <v>483</v>
+        <v>415</v>
       </c>
       <c r="H67" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I67" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J67" s="58"/>
       <c r="K67" s="58"/>
     </row>
     <row r="68" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="C68" s="58" t="str">
         <f t="shared" ref="C68" si="26">C67</f>
@@ -12469,32 +12179,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>484</v>
+        <v>416</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="H68" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I68" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J68" s="58"/>
       <c r="K68" s="58"/>
     </row>
     <row r="69" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="58" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="C69" s="58" t="str">
         <f t="shared" ref="C69" si="27">C68</f>
@@ -12502,32 +12212,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="H69" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I69" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J69" s="58"/>
       <c r="K69" s="58"/>
     </row>
     <row r="70" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="58" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="C70" s="58" t="str">
         <f t="shared" ref="C70" si="28">C69</f>
@@ -12535,32 +12245,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="H70" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I70" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J70" s="58"/>
       <c r="K70" s="58"/>
     </row>
     <row r="71" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="58" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="C71" s="58" t="str">
         <f t="shared" ref="C71" si="29">C70</f>
@@ -12568,32 +12278,32 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="E71" s="61" t="s">
-        <v>490</v>
+        <v>422</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="H71" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I71" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J71" s="58"/>
       <c r="K71" s="58"/>
     </row>
     <row r="72" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="58" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="C72" s="58" t="str">
         <f t="shared" ref="C72" si="30">C71</f>
@@ -12601,29 +12311,29 @@
 Parking Calculator is loaded in the browser.</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="H72" s="58" t="s">
         <v>81</v>
       </c>
       <c r="I72" s="58" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="J72" s="58"/>
       <c r="K72" s="58"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="B73" s="61"/>
       <c r="C73" s="58"/>
@@ -12638,7 +12348,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="58" t="s">
-        <v>249</v>
+        <v>492</v>
       </c>
       <c r="B74" s="61"/>
       <c r="C74" s="58"/>
@@ -13020,10 +12730,10 @@
     <mergeCell ref="B2:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:K74">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="122" priority="1">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13045,7 +12755,7 @@
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
@@ -13084,10 +12794,10 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="85" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" s="85"/>
+      <c r="B2" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="84"/>
       <c r="D2" s="20"/>
       <c r="E2" s="3" t="s">
         <v>85</v>
@@ -13170,24 +12880,24 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>445</v>
+      <c r="E9" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>377</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>80</v>
@@ -13201,21 +12911,21 @@
       <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="56" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="97"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="71" t="s">
         <v>173</v>
       </c>
       <c r="J10" s="41" t="s">
@@ -13224,19 +12934,19 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="34" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="97"/>
+        <v>357</v>
+      </c>
+      <c r="F11" s="103"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="34" t="s">
         <v>80</v>
       </c>
@@ -13246,50 +12956,50 @@
       <c r="J11" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" s="36" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="74" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="73" t="s">
         <v>173</v>
       </c>
       <c r="J12" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="K12" s="76"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="1:11" s="36" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="96" t="s">
-        <v>435</v>
+      <c r="B13" s="95" t="s">
+        <v>367</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="E13" s="45"/>
-      <c r="F13" s="100" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" s="96" t="s">
-        <v>443</v>
+      <c r="F13" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>375</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>80</v>
@@ -13298,96 +13008,96 @@
         <v>173</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" s="36" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="72" t="s">
-        <v>439</v>
+      <c r="A14" s="93"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="71" t="s">
+        <v>371</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="97"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="71" t="s">
         <v>173</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" s="36" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="94"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="72" t="s">
-        <v>440</v>
+      <c r="A15" s="93"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="71" t="s">
+        <v>372</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="97"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="73" t="s">
         <v>173</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" s="36" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="95"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="98"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="73" t="s">
         <v>173</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" s="36" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>431</v>
+      <c r="A17" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>363</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>170</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="100" t="s">
-        <v>432</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>433</v>
+      <c r="F17" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>365</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>80</v>
@@ -13401,15 +13111,15 @@
       <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" s="36" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="97"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="37" t="s">
         <v>80</v>
       </c>
@@ -13422,15 +13132,15 @@
       <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" s="36" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="54" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="98"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="49" t="s">
         <v>80</v>
       </c>
@@ -14927,402 +14637,402 @@
     <mergeCell ref="G13:G16"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:B9 D9:D10 F20:K83 D20:D83 A20:B83 G9:H9 K9:K10 H10">
-    <cfRule type="expression" dxfId="141" priority="165">
+    <cfRule type="expression" dxfId="107" priority="165">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="166">
+    <cfRule type="expression" dxfId="106" priority="166">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 C20:C83">
-    <cfRule type="expression" dxfId="139" priority="163">
+    <cfRule type="expression" dxfId="105" priority="163">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="164">
+    <cfRule type="expression" dxfId="104" priority="164">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 E20:E83">
-    <cfRule type="expression" dxfId="137" priority="161">
+    <cfRule type="expression" dxfId="103" priority="161">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="162">
+    <cfRule type="expression" dxfId="102" priority="162">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 H12 K12">
-    <cfRule type="expression" dxfId="135" priority="159">
+    <cfRule type="expression" dxfId="101" priority="159">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="160">
+    <cfRule type="expression" dxfId="100" priority="160">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="133" priority="157">
+    <cfRule type="expression" dxfId="99" priority="157">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="158">
+    <cfRule type="expression" dxfId="98" priority="158">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="131" priority="155">
+    <cfRule type="expression" dxfId="97" priority="155">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="156">
+    <cfRule type="expression" dxfId="96" priority="156">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="129" priority="145">
+    <cfRule type="expression" dxfId="95" priority="145">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="146">
+    <cfRule type="expression" dxfId="94" priority="146">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="127" priority="135">
+    <cfRule type="expression" dxfId="93" priority="135">
       <formula>$H19="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="136">
+    <cfRule type="expression" dxfId="92" priority="136">
       <formula>$H19="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 D17:D18 G17:I17 K17:K18 H18:I18">
-    <cfRule type="expression" dxfId="125" priority="149">
+    <cfRule type="expression" dxfId="91" priority="149">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="150">
+    <cfRule type="expression" dxfId="90" priority="150">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="123" priority="147">
+    <cfRule type="expression" dxfId="89" priority="147">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="148">
+    <cfRule type="expression" dxfId="88" priority="148">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 H19 K19">
-    <cfRule type="expression" dxfId="121" priority="143">
+    <cfRule type="expression" dxfId="87" priority="143">
       <formula>$H19="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="144">
+    <cfRule type="expression" dxfId="86" priority="144">
       <formula>$H19="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="119" priority="137">
+    <cfRule type="expression" dxfId="85" priority="137">
       <formula>$H19="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="138">
+    <cfRule type="expression" dxfId="84" priority="138">
       <formula>$H19="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="117" priority="95">
+    <cfRule type="expression" dxfId="83" priority="95">
       <formula>$H19="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="96">
+    <cfRule type="expression" dxfId="82" priority="96">
       <formula>$H19="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="115" priority="93">
+    <cfRule type="expression" dxfId="81" priority="93">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="94">
+    <cfRule type="expression" dxfId="80" priority="94">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="113" priority="91">
+    <cfRule type="expression" dxfId="79" priority="91">
       <formula>$H10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="92">
+    <cfRule type="expression" dxfId="78" priority="92">
       <formula>$H10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="111" priority="89">
+    <cfRule type="expression" dxfId="77" priority="89">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="90">
+    <cfRule type="expression" dxfId="76" priority="90">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="109" priority="87">
+    <cfRule type="expression" dxfId="75" priority="87">
       <formula>$H9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="88">
+    <cfRule type="expression" dxfId="74" priority="88">
       <formula>$H9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="107" priority="85">
+    <cfRule type="expression" dxfId="73" priority="85">
       <formula>$H10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="86">
+    <cfRule type="expression" dxfId="72" priority="86">
       <formula>$H10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="105" priority="83">
+    <cfRule type="expression" dxfId="71" priority="83">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="84">
+    <cfRule type="expression" dxfId="70" priority="84">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="103" priority="81">
+    <cfRule type="expression" dxfId="69" priority="81">
       <formula>$H17="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="82">
+    <cfRule type="expression" dxfId="68" priority="82">
       <formula>$H17="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="101" priority="79">
+    <cfRule type="expression" dxfId="67" priority="79">
       <formula>$H18="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="80">
+    <cfRule type="expression" dxfId="66" priority="80">
       <formula>$H18="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="99" priority="77">
+    <cfRule type="expression" dxfId="65" priority="77">
       <formula>$H19="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="78">
+    <cfRule type="expression" dxfId="64" priority="78">
       <formula>$H19="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="97" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$H18="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="72">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>$H18="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 H11 K11">
-    <cfRule type="expression" dxfId="95" priority="69">
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="70">
+    <cfRule type="expression" dxfId="60" priority="70">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="93" priority="67">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="68">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="91" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$H10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="60">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$H10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="89" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="64">
+    <cfRule type="expression" dxfId="54" priority="64">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="87" priority="61">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="62">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="85" priority="29">
+    <cfRule type="expression" dxfId="51" priority="29">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="30">
+    <cfRule type="expression" dxfId="50" priority="30">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="83" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>$H11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="58">
+    <cfRule type="expression" dxfId="48" priority="58">
       <formula>$H11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="81" priority="55">
+    <cfRule type="expression" dxfId="47" priority="55">
       <formula>$H12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="56">
+    <cfRule type="expression" dxfId="46" priority="56">
       <formula>$H12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="79" priority="49">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>$H13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="50">
+    <cfRule type="expression" dxfId="44" priority="50">
       <formula>$H13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="77" priority="39">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>$H13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="40">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>$H13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 G13:I13 K13:K14 H14:I14">
-    <cfRule type="expression" dxfId="75" priority="53">
+    <cfRule type="expression" dxfId="41" priority="53">
       <formula>$H13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="54">
+    <cfRule type="expression" dxfId="40" priority="54">
       <formula>$H13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="73" priority="51">
+    <cfRule type="expression" dxfId="39" priority="51">
       <formula>$H13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="52">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$H13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 K15">
-    <cfRule type="expression" dxfId="71" priority="47">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="48">
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="69" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="46">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="67" priority="41">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="42">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="65" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="34">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="63" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$H13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$H13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 K16">
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="55" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$H14="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$H14="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$H15="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$H15="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$H16="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$H16="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
